--- a/natmiOut/OldD2/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H2">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I2">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J2">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.2478654167437</v>
+        <v>25.2841165</v>
       </c>
       <c r="N2">
-        <v>25.2478654167437</v>
+        <v>50.56823300000001</v>
       </c>
       <c r="O2">
-        <v>0.149631476802052</v>
+        <v>0.1471617541362022</v>
       </c>
       <c r="P2">
-        <v>0.149631476802052</v>
+        <v>0.1078457808771122</v>
       </c>
       <c r="Q2">
-        <v>2572.066841219992</v>
+        <v>2576.257934080251</v>
       </c>
       <c r="R2">
-        <v>2572.066841219992</v>
+        <v>10305.03173632101</v>
       </c>
       <c r="S2">
-        <v>0.02945072997801371</v>
+        <v>0.02787021854902979</v>
       </c>
       <c r="T2">
-        <v>0.02945072997801371</v>
+        <v>0.01490016075322404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H3">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I3">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J3">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.4081222922606</v>
+        <v>23.10407866666667</v>
       </c>
       <c r="N3">
-        <v>21.4081222922606</v>
+        <v>69.312236</v>
       </c>
       <c r="O3">
-        <v>0.126875238808328</v>
+        <v>0.1344732272645348</v>
       </c>
       <c r="P3">
-        <v>0.126875238808328</v>
+        <v>0.1478207121802869</v>
       </c>
       <c r="Q3">
-        <v>2180.902051394398</v>
+        <v>2354.128765963179</v>
       </c>
       <c r="R3">
-        <v>2180.902051394398</v>
+        <v>14124.77259577908</v>
       </c>
       <c r="S3">
-        <v>0.02497180726207224</v>
+        <v>0.0254672027719053</v>
       </c>
       <c r="T3">
-        <v>0.02497180726207224</v>
+        <v>0.02042316682422743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H4">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I4">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J4">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.4484083785144</v>
+        <v>41.00989166666667</v>
       </c>
       <c r="N4">
-        <v>40.4484083785144</v>
+        <v>123.029675</v>
       </c>
       <c r="O4">
-        <v>0.2397174961157645</v>
+        <v>0.2386908632778325</v>
       </c>
       <c r="P4">
-        <v>0.2397174961157645</v>
+        <v>0.2623827368346512</v>
       </c>
       <c r="Q4">
-        <v>4120.586364560861</v>
+        <v>4178.594050617571</v>
       </c>
       <c r="R4">
-        <v>4120.586364560861</v>
+        <v>25071.56430370543</v>
       </c>
       <c r="S4">
-        <v>0.04718161846688474</v>
+        <v>0.04520445250369082</v>
       </c>
       <c r="T4">
-        <v>0.04718161846688474</v>
+        <v>0.03625125550495129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H5">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I5">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J5">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.5674471369577</v>
+        <v>43.69120433333333</v>
       </c>
       <c r="N5">
-        <v>43.5674471369577</v>
+        <v>131.073613</v>
       </c>
       <c r="O5">
-        <v>0.2582024796153677</v>
+        <v>0.2542969721728885</v>
       </c>
       <c r="P5">
-        <v>0.2582024796153677</v>
+        <v>0.2795378700768406</v>
       </c>
       <c r="Q5">
-        <v>4438.331094052002</v>
+        <v>4451.799287243097</v>
       </c>
       <c r="R5">
-        <v>4438.331094052002</v>
+        <v>26710.79572345858</v>
       </c>
       <c r="S5">
-        <v>0.05081986537408487</v>
+        <v>0.04816001434894184</v>
       </c>
       <c r="T5">
-        <v>0.05081986537408487</v>
+        <v>0.03862143856610288</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H6">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I6">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J6">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.0851507071821</v>
+        <v>17.46529166666667</v>
       </c>
       <c r="N6">
-        <v>17.0851507071821</v>
+        <v>52.395875</v>
       </c>
       <c r="O6">
-        <v>0.1012551472967649</v>
+        <v>0.1016536590537803</v>
       </c>
       <c r="P6">
-        <v>0.1012551472967649</v>
+        <v>0.1117435535885654</v>
       </c>
       <c r="Q6">
-        <v>1740.50949994556</v>
+        <v>1779.579532758271</v>
       </c>
       <c r="R6">
-        <v>1740.50949994556</v>
+        <v>10677.47719654963</v>
       </c>
       <c r="S6">
-        <v>0.01992921586857007</v>
+        <v>0.01925167113403186</v>
       </c>
       <c r="T6">
-        <v>0.01992921586857007</v>
+        <v>0.01543868381372615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H7">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I7">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J7">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.9766572782684</v>
+        <v>21.2571535</v>
       </c>
       <c r="N7">
-        <v>20.9766572782684</v>
+        <v>42.514307</v>
       </c>
       <c r="O7">
-        <v>0.1243181613617231</v>
+        <v>0.1237235240947616</v>
       </c>
       <c r="P7">
-        <v>0.1243181613617231</v>
+        <v>0.09066934644254382</v>
       </c>
       <c r="Q7">
-        <v>2136.947569012696</v>
+        <v>2165.941228768535</v>
       </c>
       <c r="R7">
-        <v>2136.947569012696</v>
+        <v>8663.764915074138</v>
       </c>
       <c r="S7">
-        <v>0.02446851878947062</v>
+        <v>0.02343137098641645</v>
       </c>
       <c r="T7">
-        <v>0.02446851878947062</v>
+        <v>0.0125270346822662</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H8">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I8">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J8">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.2478654167437</v>
+        <v>25.2841165</v>
       </c>
       <c r="N8">
-        <v>25.2478654167437</v>
+        <v>50.56823300000001</v>
       </c>
       <c r="O8">
-        <v>0.149631476802052</v>
+        <v>0.1471617541362022</v>
       </c>
       <c r="P8">
-        <v>0.149631476802052</v>
+        <v>0.1078457808771122</v>
       </c>
       <c r="Q8">
-        <v>1621.394184800361</v>
+        <v>1828.137281190758</v>
       </c>
       <c r="R8">
-        <v>1621.394184800361</v>
+        <v>10968.82368714455</v>
       </c>
       <c r="S8">
-        <v>0.01856531936076263</v>
+        <v>0.01977697376121052</v>
       </c>
       <c r="T8">
-        <v>0.01856531936076263</v>
+        <v>0.01585994496612527</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H9">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I9">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J9">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.4081222922606</v>
+        <v>23.10407866666667</v>
       </c>
       <c r="N9">
-        <v>21.4081222922606</v>
+        <v>69.312236</v>
       </c>
       <c r="O9">
-        <v>0.126875238808328</v>
+        <v>0.1344732272645348</v>
       </c>
       <c r="P9">
-        <v>0.126875238808328</v>
+        <v>0.1478207121802869</v>
       </c>
       <c r="Q9">
-        <v>1374.809490593487</v>
+        <v>1670.512298030955</v>
       </c>
       <c r="R9">
-        <v>1374.809490593487</v>
+        <v>15034.6106822786</v>
       </c>
       <c r="S9">
-        <v>0.01574187047933575</v>
+        <v>0.01807177077227952</v>
       </c>
       <c r="T9">
-        <v>0.01574187047933575</v>
+        <v>0.02173871189920927</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H10">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I10">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J10">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.4484083785144</v>
+        <v>41.00989166666667</v>
       </c>
       <c r="N10">
-        <v>40.4484083785144</v>
+        <v>123.029675</v>
       </c>
       <c r="O10">
-        <v>0.2397174961157645</v>
+        <v>0.2386908632778325</v>
       </c>
       <c r="P10">
-        <v>0.2397174961157645</v>
+        <v>0.2623827368346512</v>
       </c>
       <c r="Q10">
-        <v>2597.558765734734</v>
+        <v>2965.170321590139</v>
       </c>
       <c r="R10">
-        <v>2597.558765734734</v>
+        <v>26686.53289431125</v>
       </c>
       <c r="S10">
-        <v>0.02974261810995179</v>
+        <v>0.03207751203969309</v>
       </c>
       <c r="T10">
-        <v>0.02974261810995179</v>
+        <v>0.03858635666981439</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H11">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I11">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J11">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.5674471369577</v>
+        <v>43.69120433333333</v>
       </c>
       <c r="N11">
-        <v>43.5674471369577</v>
+        <v>131.073613</v>
       </c>
       <c r="O11">
-        <v>0.2582024796153677</v>
+        <v>0.2542969721728885</v>
       </c>
       <c r="P11">
-        <v>0.2582024796153677</v>
+        <v>0.2795378700768406</v>
       </c>
       <c r="Q11">
-        <v>2797.860502995783</v>
+        <v>3159.039371689727</v>
       </c>
       <c r="R11">
-        <v>2797.860502995783</v>
+        <v>28431.35434520755</v>
       </c>
       <c r="S11">
-        <v>0.03203611697384762</v>
+        <v>0.03417480700565593</v>
       </c>
       <c r="T11">
-        <v>0.03203611697384762</v>
+        <v>0.04110921353908494</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H12">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I12">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J12">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.0851507071821</v>
+        <v>17.46529166666667</v>
       </c>
       <c r="N12">
-        <v>17.0851507071821</v>
+        <v>52.395875</v>
       </c>
       <c r="O12">
-        <v>0.1012551472967649</v>
+        <v>0.1016536590537803</v>
       </c>
       <c r="P12">
-        <v>0.1012551472967649</v>
+        <v>0.1117435535885654</v>
       </c>
       <c r="Q12">
-        <v>1097.192318867945</v>
+        <v>1262.806664520139</v>
       </c>
       <c r="R12">
-        <v>1097.192318867945</v>
+        <v>11365.25998068125</v>
       </c>
       <c r="S12">
-        <v>0.01256309291775781</v>
+        <v>0.01366117004814289</v>
       </c>
       <c r="T12">
-        <v>0.01256309291775781</v>
+        <v>0.01643315664108688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H13">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I13">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J13">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.9766572782684</v>
+        <v>21.2571535</v>
       </c>
       <c r="N13">
-        <v>20.9766572782684</v>
+        <v>42.514307</v>
       </c>
       <c r="O13">
-        <v>0.1243181613617231</v>
+        <v>0.1237235240947616</v>
       </c>
       <c r="P13">
-        <v>0.1243181613617231</v>
+        <v>0.09066934644254382</v>
       </c>
       <c r="Q13">
-        <v>1347.101212959536</v>
+        <v>1536.972620947408</v>
       </c>
       <c r="R13">
-        <v>1347.101212959536</v>
+        <v>9221.83572568445</v>
       </c>
       <c r="S13">
-        <v>0.01542460461762655</v>
+        <v>0.01662712505724787</v>
       </c>
       <c r="T13">
-        <v>0.01542460461762655</v>
+        <v>0.01333395551497626</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H14">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I14">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J14">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.2478654167437</v>
+        <v>25.2841165</v>
       </c>
       <c r="N14">
-        <v>25.2478654167437</v>
+        <v>50.56823300000001</v>
       </c>
       <c r="O14">
-        <v>0.149631476802052</v>
+        <v>0.1471617541362022</v>
       </c>
       <c r="P14">
-        <v>0.149631476802052</v>
+        <v>0.1078457808771122</v>
       </c>
       <c r="Q14">
-        <v>3633.904491629524</v>
+        <v>3845.051338676147</v>
       </c>
       <c r="R14">
-        <v>3633.904491629524</v>
+        <v>23070.30803205688</v>
       </c>
       <c r="S14">
-        <v>0.04160900418050942</v>
+        <v>0.04159615375601038</v>
       </c>
       <c r="T14">
-        <v>0.04160900418050942</v>
+        <v>0.03335761665754616</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H15">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I15">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J15">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.4081222922606</v>
+        <v>23.10407866666667</v>
       </c>
       <c r="N15">
-        <v>21.4081222922606</v>
+        <v>69.312236</v>
       </c>
       <c r="O15">
-        <v>0.126875238808328</v>
+        <v>0.1344732272645348</v>
       </c>
       <c r="P15">
-        <v>0.126875238808328</v>
+        <v>0.1478207121802869</v>
       </c>
       <c r="Q15">
-        <v>3081.253423650157</v>
+        <v>3513.524730284551</v>
       </c>
       <c r="R15">
-        <v>3081.253423650157</v>
+        <v>31621.72257256096</v>
       </c>
       <c r="S15">
-        <v>0.03528102812861134</v>
+        <v>0.03800966542017103</v>
       </c>
       <c r="T15">
-        <v>0.03528102812861134</v>
+        <v>0.04572220267544984</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H16">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I16">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J16">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.4484083785144</v>
+        <v>41.00989166666667</v>
       </c>
       <c r="N16">
-        <v>40.4484083785144</v>
+        <v>123.029675</v>
       </c>
       <c r="O16">
-        <v>0.2397174961157645</v>
+        <v>0.2386908632778325</v>
       </c>
       <c r="P16">
-        <v>0.2397174961157645</v>
+        <v>0.2623827368346512</v>
       </c>
       <c r="Q16">
-        <v>5821.706130787272</v>
+        <v>6236.529516539778</v>
       </c>
       <c r="R16">
-        <v>5821.706130787272</v>
+        <v>56128.765648858</v>
       </c>
       <c r="S16">
-        <v>0.06665981323713908</v>
+        <v>0.06746740623837875</v>
       </c>
       <c r="T16">
-        <v>0.06665981323713908</v>
+        <v>0.08115721061782978</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H17">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I17">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J17">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.5674471369577</v>
+        <v>43.69120433333333</v>
       </c>
       <c r="N17">
-        <v>43.5674471369577</v>
+        <v>131.073613</v>
       </c>
       <c r="O17">
-        <v>0.2582024796153677</v>
+        <v>0.2542969721728885</v>
       </c>
       <c r="P17">
-        <v>0.2582024796153677</v>
+        <v>0.2795378700768406</v>
       </c>
       <c r="Q17">
-        <v>6270.626812468231</v>
+        <v>6644.286886997076</v>
       </c>
       <c r="R17">
-        <v>6270.626812468231</v>
+        <v>59798.58198297368</v>
       </c>
       <c r="S17">
-        <v>0.07180005359398016</v>
+        <v>0.07187856665802816</v>
       </c>
       <c r="T17">
-        <v>0.07180005359398016</v>
+        <v>0.08646343913922321</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H18">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I18">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J18">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.0851507071821</v>
+        <v>17.46529166666667</v>
       </c>
       <c r="N18">
-        <v>17.0851507071821</v>
+        <v>52.395875</v>
       </c>
       <c r="O18">
-        <v>0.1012551472967649</v>
+        <v>0.1016536590537803</v>
       </c>
       <c r="P18">
-        <v>0.1012551472967649</v>
+        <v>0.1117435535885654</v>
       </c>
       <c r="Q18">
-        <v>2459.051681011526</v>
+        <v>2656.013038987778</v>
       </c>
       <c r="R18">
-        <v>2459.051681011526</v>
+        <v>23904.11735089</v>
       </c>
       <c r="S18">
-        <v>0.02815668158339937</v>
+        <v>0.02873301732968337</v>
       </c>
       <c r="T18">
-        <v>0.02815668158339937</v>
+        <v>0.03456323088621084</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H19">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I19">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J19">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.9766572782684</v>
+        <v>21.2571535</v>
       </c>
       <c r="N19">
-        <v>20.9766572782684</v>
+        <v>42.514307</v>
       </c>
       <c r="O19">
-        <v>0.1243181613617231</v>
+        <v>0.1237235240947616</v>
       </c>
       <c r="P19">
-        <v>0.1243181613617231</v>
+        <v>0.09066934644254382</v>
       </c>
       <c r="Q19">
-        <v>3019.153019261616</v>
+        <v>3232.655826499587</v>
       </c>
       <c r="R19">
-        <v>3019.153019261616</v>
+        <v>19395.93495899752</v>
       </c>
       <c r="S19">
-        <v>0.03456996486545567</v>
+        <v>0.03497119724951094</v>
       </c>
       <c r="T19">
-        <v>0.03456996486545567</v>
+        <v>0.028044799496301</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H20">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I20">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J20">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.2478654167437</v>
+        <v>25.2841165</v>
       </c>
       <c r="N20">
-        <v>25.2478654167437</v>
+        <v>50.56823300000001</v>
       </c>
       <c r="O20">
-        <v>0.149631476802052</v>
+        <v>0.1471617541362022</v>
       </c>
       <c r="P20">
-        <v>0.149631476802052</v>
+        <v>0.1078457808771122</v>
       </c>
       <c r="Q20">
-        <v>2126.73339961472</v>
+        <v>2163.903993569478</v>
       </c>
       <c r="R20">
-        <v>2126.73339961472</v>
+        <v>12983.42396141687</v>
       </c>
       <c r="S20">
-        <v>0.02435156430754635</v>
+        <v>0.02340933197025957</v>
       </c>
       <c r="T20">
-        <v>0.02435156430754635</v>
+        <v>0.01877287805631132</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H21">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I21">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J21">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.4081222922606</v>
+        <v>23.10407866666667</v>
       </c>
       <c r="N21">
-        <v>21.4081222922606</v>
+        <v>69.312236</v>
       </c>
       <c r="O21">
-        <v>0.126875238808328</v>
+        <v>0.1344732272645348</v>
       </c>
       <c r="P21">
-        <v>0.126875238808328</v>
+        <v>0.1478207121802869</v>
       </c>
       <c r="Q21">
-        <v>1803.295761858474</v>
+        <v>1977.328655899184</v>
       </c>
       <c r="R21">
-        <v>1803.295761858474</v>
+        <v>17795.95790309265</v>
       </c>
       <c r="S21">
-        <v>0.02064813235094617</v>
+        <v>0.02139094112206737</v>
       </c>
       <c r="T21">
-        <v>0.02064813235094617</v>
+        <v>0.02573137475929347</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H22">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I22">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J22">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.4484083785144</v>
+        <v>41.00989166666667</v>
       </c>
       <c r="N22">
-        <v>40.4484083785144</v>
+        <v>123.029675</v>
       </c>
       <c r="O22">
-        <v>0.2397174961157645</v>
+        <v>0.2386908632778325</v>
       </c>
       <c r="P22">
-        <v>0.2397174961157645</v>
+        <v>0.2623827368346512</v>
       </c>
       <c r="Q22">
-        <v>3407.138767572579</v>
+        <v>3509.7713757707</v>
       </c>
       <c r="R22">
-        <v>3407.138767572579</v>
+        <v>31587.9423819363</v>
       </c>
       <c r="S22">
-        <v>0.03901248685815937</v>
+        <v>0.03796906125192793</v>
       </c>
       <c r="T22">
-        <v>0.03901248685815937</v>
+        <v>0.04567335951965362</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H23">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I23">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J23">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>43.5674471369577</v>
+        <v>43.69120433333333</v>
       </c>
       <c r="N23">
-        <v>43.5674471369577</v>
+        <v>131.073613</v>
       </c>
       <c r="O23">
-        <v>0.2582024796153677</v>
+        <v>0.2542969721728885</v>
       </c>
       <c r="P23">
-        <v>0.2582024796153677</v>
+        <v>0.2795378700768406</v>
       </c>
       <c r="Q23">
-        <v>3669.868459480518</v>
+        <v>3739.247584180372</v>
       </c>
       <c r="R23">
-        <v>3669.868459480518</v>
+        <v>33653.22825762334</v>
       </c>
       <c r="S23">
-        <v>0.04202079950757612</v>
+        <v>0.04045155805303473</v>
       </c>
       <c r="T23">
-        <v>0.04202079950757612</v>
+        <v>0.04865957948835469</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H24">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I24">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J24">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.0851507071821</v>
+        <v>17.46529166666667</v>
       </c>
       <c r="N24">
-        <v>17.0851507071821</v>
+        <v>52.395875</v>
       </c>
       <c r="O24">
-        <v>0.1012551472967649</v>
+        <v>0.1016536590537803</v>
       </c>
       <c r="P24">
-        <v>0.1012551472967649</v>
+        <v>0.1117435535885654</v>
       </c>
       <c r="Q24">
-        <v>1439.15376791887</v>
+        <v>1494.7413482435</v>
       </c>
       <c r="R24">
-        <v>1439.15376791887</v>
+        <v>13452.6721341915</v>
       </c>
       <c r="S24">
-        <v>0.01647862658021588</v>
+        <v>0.01617026288351456</v>
       </c>
       <c r="T24">
-        <v>0.01647862658021588</v>
+        <v>0.01945136924259802</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H25">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I25">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J25">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.9766572782684</v>
+        <v>21.2571535</v>
       </c>
       <c r="N25">
-        <v>20.9766572782684</v>
+        <v>42.514307</v>
       </c>
       <c r="O25">
-        <v>0.1243181613617231</v>
+        <v>0.1237235240947616</v>
       </c>
       <c r="P25">
-        <v>0.1243181613617231</v>
+        <v>0.09066934644254382</v>
       </c>
       <c r="Q25">
-        <v>1766.951657480688</v>
+        <v>1819.262276796162</v>
       </c>
       <c r="R25">
-        <v>1766.951657480688</v>
+        <v>10915.57366077697</v>
       </c>
       <c r="S25">
-        <v>0.0202319843771963</v>
+        <v>0.01968096306723888</v>
       </c>
       <c r="T25">
-        <v>0.0202319843771963</v>
+        <v>0.01578295015686197</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H26">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I26">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J26">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.2478654167437</v>
+        <v>25.2841165</v>
       </c>
       <c r="N26">
-        <v>25.2478654167437</v>
+        <v>50.56823300000001</v>
       </c>
       <c r="O26">
-        <v>0.149631476802052</v>
+        <v>0.1471617541362022</v>
       </c>
       <c r="P26">
-        <v>0.149631476802052</v>
+        <v>0.1078457808771122</v>
       </c>
       <c r="Q26">
-        <v>2194.492086224589</v>
+        <v>2249.692006345396</v>
       </c>
       <c r="R26">
-        <v>2194.492086224589</v>
+        <v>13498.15203807238</v>
       </c>
       <c r="S26">
-        <v>0.02512741614429939</v>
+        <v>0.02433739535759481</v>
       </c>
       <c r="T26">
-        <v>0.02512741614429939</v>
+        <v>0.01951712914477065</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H27">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I27">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J27">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>21.4081222922606</v>
+        <v>23.10407866666667</v>
       </c>
       <c r="N27">
-        <v>21.4081222922606</v>
+        <v>69.312236</v>
       </c>
       <c r="O27">
-        <v>0.126875238808328</v>
+        <v>0.1344732272645348</v>
       </c>
       <c r="P27">
-        <v>0.126875238808328</v>
+        <v>0.1478207121802869</v>
       </c>
       <c r="Q27">
-        <v>1860.749579255055</v>
+        <v>2055.719886054756</v>
       </c>
       <c r="R27">
-        <v>1860.749579255055</v>
+        <v>18501.47897449281</v>
       </c>
       <c r="S27">
-        <v>0.02130599117297827</v>
+        <v>0.02223898536789444</v>
       </c>
       <c r="T27">
-        <v>0.02130599117297827</v>
+        <v>0.02675149557479735</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H28">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I28">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J28">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>40.4484083785144</v>
+        <v>41.00989166666667</v>
       </c>
       <c r="N28">
-        <v>40.4484083785144</v>
+        <v>123.029675</v>
       </c>
       <c r="O28">
-        <v>0.2397174961157645</v>
+        <v>0.2386908632778325</v>
       </c>
       <c r="P28">
-        <v>0.2397174961157645</v>
+        <v>0.2623827368346512</v>
       </c>
       <c r="Q28">
-        <v>3515.691747475988</v>
+        <v>3648.916325139961</v>
       </c>
       <c r="R28">
-        <v>3515.691747475988</v>
+        <v>32840.24692625965</v>
       </c>
       <c r="S28">
-        <v>0.040255442308698</v>
+        <v>0.03947434536871396</v>
       </c>
       <c r="T28">
-        <v>0.040255442308698</v>
+        <v>0.04748408067994309</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H29">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I29">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J29">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>43.5674471369577</v>
+        <v>43.69120433333333</v>
       </c>
       <c r="N29">
-        <v>43.5674471369577</v>
+        <v>131.073613</v>
       </c>
       <c r="O29">
-        <v>0.2582024796153677</v>
+        <v>0.2542969721728885</v>
       </c>
       <c r="P29">
-        <v>0.2582024796153677</v>
+        <v>0.2795378700768406</v>
       </c>
       <c r="Q29">
-        <v>3786.792126024915</v>
+        <v>3887.490121962668</v>
       </c>
       <c r="R29">
-        <v>3786.792126024915</v>
+        <v>34987.41109766401</v>
       </c>
       <c r="S29">
-        <v>0.04335960115777159</v>
+        <v>0.04205526080018626</v>
       </c>
       <c r="T29">
-        <v>0.04335960115777159</v>
+        <v>0.05058868939305609</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H30">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I30">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J30">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>17.0851507071821</v>
+        <v>17.46529166666667</v>
       </c>
       <c r="N30">
-        <v>17.0851507071821</v>
+        <v>52.395875</v>
       </c>
       <c r="O30">
-        <v>0.1012551472967649</v>
+        <v>0.1016536590537803</v>
       </c>
       <c r="P30">
-        <v>0.1012551472967649</v>
+        <v>0.1117435535885654</v>
       </c>
       <c r="Q30">
-        <v>1485.005856930823</v>
+        <v>1554.000395900361</v>
       </c>
       <c r="R30">
-        <v>1485.005856930823</v>
+        <v>13986.00356310325</v>
       </c>
       <c r="S30">
-        <v>0.0170036430653156</v>
+        <v>0.01681133324660059</v>
       </c>
       <c r="T30">
-        <v>0.0170036430653156</v>
+        <v>0.02022251912635072</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H31">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I31">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J31">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.9766572782684</v>
+        <v>21.2571535</v>
       </c>
       <c r="N31">
-        <v>20.9766572782684</v>
+        <v>42.514307</v>
       </c>
       <c r="O31">
-        <v>0.1243181613617231</v>
+        <v>0.1237235240947616</v>
       </c>
       <c r="P31">
-        <v>0.1243181613617231</v>
+        <v>0.09066934644254382</v>
       </c>
       <c r="Q31">
-        <v>1823.247535297678</v>
+        <v>1891.386962506958</v>
       </c>
       <c r="R31">
-        <v>1823.247535297678</v>
+        <v>11348.32177504175</v>
       </c>
       <c r="S31">
-        <v>0.02087658453683952</v>
+        <v>0.02046121520230221</v>
       </c>
       <c r="T31">
-        <v>0.02087658453683952</v>
+        <v>0.01640866549992812</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H32">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I32">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J32">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>25.2478654167437</v>
+        <v>25.2841165</v>
       </c>
       <c r="N32">
-        <v>25.2478654167437</v>
+        <v>50.56823300000001</v>
       </c>
       <c r="O32">
-        <v>0.149631476802052</v>
+        <v>0.1471617541362022</v>
       </c>
       <c r="P32">
-        <v>0.149631476802052</v>
+        <v>0.1078457808771122</v>
       </c>
       <c r="Q32">
-        <v>919.4096936973758</v>
+        <v>940.2464199790523</v>
       </c>
       <c r="R32">
-        <v>919.4096936973758</v>
+        <v>3760.985679916209</v>
       </c>
       <c r="S32">
-        <v>0.01052744283092049</v>
+        <v>0.01017168074209713</v>
       </c>
       <c r="T32">
-        <v>0.01052744283092049</v>
+        <v>0.005438051299134739</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H33">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I33">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J33">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>21.4081222922606</v>
+        <v>23.10407866666667</v>
       </c>
       <c r="N33">
-        <v>21.4081222922606</v>
+        <v>69.312236</v>
       </c>
       <c r="O33">
-        <v>0.126875238808328</v>
+        <v>0.1344732272645348</v>
       </c>
       <c r="P33">
-        <v>0.126875238808328</v>
+        <v>0.1478207121802869</v>
       </c>
       <c r="Q33">
-        <v>779.5841285778622</v>
+        <v>859.1768374919379</v>
       </c>
       <c r="R33">
-        <v>779.5841285778622</v>
+        <v>5155.061024951628</v>
       </c>
       <c r="S33">
-        <v>0.008926409414384268</v>
+        <v>0.00929466181021712</v>
       </c>
       <c r="T33">
-        <v>0.008926409414384268</v>
+        <v>0.007453760447309551</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H34">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I34">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J34">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>40.4484083785144</v>
+        <v>41.00989166666667</v>
       </c>
       <c r="N34">
-        <v>40.4484083785144</v>
+        <v>123.029675</v>
       </c>
       <c r="O34">
-        <v>0.2397174961157645</v>
+        <v>0.2386908632778325</v>
       </c>
       <c r="P34">
-        <v>0.2397174961157645</v>
+        <v>0.2623827368346512</v>
       </c>
       <c r="Q34">
-        <v>1472.942688183603</v>
+        <v>1525.044540247712</v>
       </c>
       <c r="R34">
-        <v>1472.942688183603</v>
+        <v>9150.267241486274</v>
       </c>
       <c r="S34">
-        <v>0.01686551713493151</v>
+        <v>0.01649808587542788</v>
       </c>
       <c r="T34">
-        <v>0.01686551713493151</v>
+        <v>0.01323047384245905</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H35">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I35">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J35">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>43.5674471369577</v>
+        <v>43.69120433333333</v>
       </c>
       <c r="N35">
-        <v>43.5674471369577</v>
+        <v>131.073613</v>
       </c>
       <c r="O35">
-        <v>0.2582024796153677</v>
+        <v>0.2542969721728885</v>
       </c>
       <c r="P35">
-        <v>0.2582024796153677</v>
+        <v>0.2795378700768406</v>
       </c>
       <c r="Q35">
-        <v>1586.523556197453</v>
+        <v>1624.755148513491</v>
       </c>
       <c r="R35">
-        <v>1586.523556197453</v>
+        <v>9748.530891080947</v>
       </c>
       <c r="S35">
-        <v>0.01816604300810737</v>
+        <v>0.01757676530704157</v>
       </c>
       <c r="T35">
-        <v>0.01816604300810737</v>
+        <v>0.01409550995101873</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H36">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I36">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J36">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>17.0851507071821</v>
+        <v>17.46529166666667</v>
       </c>
       <c r="N36">
-        <v>17.0851507071821</v>
+        <v>52.395875</v>
       </c>
       <c r="O36">
-        <v>0.1012551472967649</v>
+        <v>0.1016536590537803</v>
       </c>
       <c r="P36">
-        <v>0.1012551472967649</v>
+        <v>0.1117435535885654</v>
       </c>
       <c r="Q36">
-        <v>622.1616330403325</v>
+        <v>649.4859317498124</v>
       </c>
       <c r="R36">
-        <v>622.1616330403325</v>
+        <v>3896.915590498874</v>
       </c>
       <c r="S36">
-        <v>0.007123887281506184</v>
+        <v>0.007026204411807027</v>
       </c>
       <c r="T36">
-        <v>0.007123887281506184</v>
+        <v>0.005634593878592739</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H37">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I37">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J37">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>20.9766572782684</v>
+        <v>21.2571535</v>
       </c>
       <c r="N37">
-        <v>20.9766572782684</v>
+        <v>42.514307</v>
       </c>
       <c r="O37">
-        <v>0.1243181613617231</v>
+        <v>0.1237235240947616</v>
       </c>
       <c r="P37">
-        <v>0.1243181613617231</v>
+        <v>0.09066934644254382</v>
       </c>
       <c r="Q37">
-        <v>763.8721818525511</v>
+        <v>790.4947945213028</v>
       </c>
       <c r="R37">
-        <v>763.8721818525511</v>
+        <v>3161.979178085211</v>
       </c>
       <c r="S37">
-        <v>0.008746504175134501</v>
+        <v>0.008551652532045274</v>
       </c>
       <c r="T37">
-        <v>0.008746504175134501</v>
+        <v>0.004571941092210264</v>
       </c>
     </row>
   </sheetData>
